--- a/EISC_KPI/data/部门其他情况加减分.xlsx
+++ b/EISC_KPI/data/部门其他情况加减分.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>文娱部</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>加减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外加减分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,38 +371,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
